--- a/files/Data/excel/Bbuff数据.xlsx
+++ b/files/Data/excel/Bbuff数据.xlsx
@@ -60,7 +60,7 @@
     <t>外观</t>
   </si>
   <si>
-    <t>1:20,30,2:10,20</t>
+    <t>1:20,30;2:10,20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +476,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
